--- a/07a.xlsx
+++ b/07a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E131AC-BC5B-417F-8E08-873E06E60715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E97CA0-7EC8-4B6B-AC59-DB308CDE8CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6292" yWindow="2258" windowWidth="28231" windowHeight="15097" xr2:uid="{A0D3E0F2-FDAD-4D8C-AEE6-7CE68FBA2459}"/>
+    <workbookView xWindow="1500" yWindow="735" windowWidth="28230" windowHeight="15098" xr2:uid="{A0D3E0F2-FDAD-4D8C-AEE6-7CE68FBA2459}"/>
   </bookViews>
   <sheets>
     <sheet name="売上一覧" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="15">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -177,6 +177,13 @@
     <t>翌日</t>
     <rPh sb="0" eb="2">
       <t>ヨクジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイトA(1日後)</t>
+    <rPh sb="6" eb="8">
+      <t>ニチゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7656,7 +7663,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>

--- a/07a.xlsx
+++ b/07a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E97CA0-7EC8-4B6B-AC59-DB308CDE8CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD06195E-10C9-4FC9-8D9C-9F5D16C1C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="735" windowWidth="28230" windowHeight="15098" xr2:uid="{A0D3E0F2-FDAD-4D8C-AEE6-7CE68FBA2459}"/>
+    <workbookView xWindow="12510" yWindow="2692" windowWidth="23070" windowHeight="15098" xr2:uid="{A0D3E0F2-FDAD-4D8C-AEE6-7CE68FBA2459}"/>
   </bookViews>
   <sheets>
     <sheet name="売上一覧" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="14">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -144,13 +144,6 @@
   </si>
   <si>
     <t>サイトB(1日後)</t>
-    <rPh sb="6" eb="8">
-      <t>ニチゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイトB(2日後)</t>
     <rPh sb="6" eb="8">
       <t>ニチゴ</t>
     </rPh>
@@ -7663,10 +7656,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
@@ -7871,7 +7864,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="D13" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>3</v>
@@ -7886,7 +7879,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="D14" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="33">
         <f>CORREL(C5:C11,E5:E11)</f>
@@ -7899,7 +7892,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
       <c r="D15" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="31">
         <f>CORREL(C5:C11,G5:G11)</f>
